--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2022/ifoCAst_error_tables_filtered_latest_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2022/ifoCAst_error_tables_filtered_latest_since_2022_GVA.xlsx
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01013205516401729</v>
+        <v>0.006109567252182264</v>
       </c>
       <c r="C2">
-        <v>0.4754056071978279</v>
+        <v>0.4815469527244732</v>
       </c>
       <c r="D2">
-        <v>0.398484220182529</v>
+        <v>0.3941471084727503</v>
       </c>
       <c r="E2">
-        <v>0.6312560654619717</v>
+        <v>0.6278113637652238</v>
       </c>
       <c r="F2">
-        <v>0.6550009901912394</v>
+        <v>0.6514797914836403</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05934739694759362</v>
+        <v>0.04939103104625085</v>
       </c>
       <c r="C3">
-        <v>0.5543805306782661</v>
+        <v>0.5032213284952747</v>
       </c>
       <c r="D3">
-        <v>0.4158862424848415</v>
+        <v>0.3769116481242295</v>
       </c>
       <c r="E3">
-        <v>0.6448924270642674</v>
+        <v>0.6139313057046607</v>
       </c>
       <c r="F3">
-        <v>0.6663966135663684</v>
+        <v>0.633419439721888</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2905611837572922</v>
+        <v>0.3050745724485351</v>
       </c>
       <c r="C4">
-        <v>0.8149747729556598</v>
+        <v>0.781138290135054</v>
       </c>
       <c r="D4">
-        <v>0.789452722548911</v>
+        <v>0.7388866705223734</v>
       </c>
       <c r="E4">
-        <v>0.8885115207744416</v>
+        <v>0.8595851735124178</v>
       </c>
       <c r="F4">
-        <v>0.8739446003395628</v>
+        <v>0.8339630346331093</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
